--- a/data/summary.xlsx
+++ b/data/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>0M</t>
   </si>
@@ -35,18 +35,15 @@
   </si>
   <si>
     <t>right</t>
-  </si>
-  <si>
-    <t>2021-07-09 09:00:00</t>
-  </si>
-  <si>
-    <t>2021-07-09 09:01:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -99,9 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,85 +467,85 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
+      <c r="A4" s="2">
+        <v>43467</v>
       </c>
       <c r="B4">
-        <v>-0.8426323123781735</v>
+        <v>-0.03056031644949887</v>
       </c>
       <c r="C4">
-        <v>0.003044935331461532</v>
+        <v>0.009336083822868596</v>
       </c>
       <c r="D4">
-        <v>0.845677247709635</v>
+        <v>0.03989640027236746</v>
       </c>
       <c r="E4">
-        <v>-0.05611393338790115</v>
+        <v>0.007339653571375165</v>
       </c>
       <c r="F4">
-        <v>0.02657253779449839</v>
+        <v>0.003696668535151762</v>
       </c>
       <c r="G4">
-        <v>0.08268647118239955</v>
+        <v>-0.003642985036223402</v>
       </c>
       <c r="H4">
-        <v>-0.0812652502576544</v>
+        <v>-0.02324686710860826</v>
       </c>
       <c r="I4">
-        <v>0.02789942292194518</v>
+        <v>-0.0116229998037474</v>
       </c>
       <c r="J4">
-        <v>0.1091646731795996</v>
+        <v>0.01162386730486087</v>
       </c>
       <c r="K4">
-        <v>0.007365897185004055</v>
+        <v>-0.002351533235689906</v>
       </c>
       <c r="L4">
-        <v>0.02091828061107031</v>
+        <v>0.01895979495127779</v>
       </c>
       <c r="M4">
-        <v>0.01355238342606625</v>
+        <v>0.0213113281869677</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+      <c r="A5" s="2">
+        <v>43468</v>
       </c>
       <c r="B5">
-        <v>-0.8426323123781735</v>
+        <v>-0.01437140681067996</v>
       </c>
       <c r="C5">
-        <v>0.003044935331461532</v>
+        <v>0.006029594950748981</v>
       </c>
       <c r="D5">
-        <v>0.845677247709635</v>
+        <v>0.02040100176142894</v>
       </c>
       <c r="E5">
-        <v>-0.05611393338790115</v>
+        <v>-0.002347481293098961</v>
       </c>
       <c r="F5">
-        <v>0.02657253779449839</v>
+        <v>-0.001114083980204146</v>
       </c>
       <c r="G5">
-        <v>0.08268647118239955</v>
+        <v>0.001233397312894815</v>
       </c>
       <c r="H5">
-        <v>-0.0812652502576544</v>
+        <v>-0.004463858392987965</v>
       </c>
       <c r="I5">
-        <v>0.02789942292194518</v>
+        <v>-0.002162501257339382</v>
       </c>
       <c r="J5">
-        <v>0.1091646731795996</v>
+        <v>0.002301357135648583</v>
       </c>
       <c r="K5">
-        <v>0.007365897185004055</v>
+        <v>-0.005054024448394552</v>
       </c>
       <c r="L5">
-        <v>0.02091828061107031</v>
+        <v>0.02374142432484177</v>
       </c>
       <c r="M5">
-        <v>0.01355238342606625</v>
+        <v>0.02879544877323632</v>
       </c>
     </row>
   </sheetData>

--- a/data/summary.xlsx
+++ b/data/summary.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,84 +468,34 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
-        <v>43467</v>
+        <v>43488</v>
       </c>
       <c r="B4">
-        <v>-0.03056031644949887</v>
+        <v>0.005227893291896007</v>
       </c>
       <c r="C4">
-        <v>0.009336083822868596</v>
+        <v>0.01314771900906171</v>
       </c>
       <c r="D4">
-        <v>0.03989640027236746</v>
+        <v>0.0079198257171657</v>
       </c>
       <c r="E4">
-        <v>0.007339653571375165</v>
+        <v>-0.05076062320217372</v>
       </c>
       <c r="F4">
-        <v>0.003696668535151762</v>
+        <v>0.02300771063455507</v>
       </c>
       <c r="G4">
-        <v>-0.003642985036223402</v>
+        <v>0.07376833383672879</v>
       </c>
       <c r="H4">
-        <v>-0.02324686710860826</v>
+        <v>-0.04305108288316703</v>
       </c>
       <c r="I4">
-        <v>-0.0116229998037474</v>
+        <v>0.06122273305078525</v>
       </c>
       <c r="J4">
-        <v>0.01162386730486087</v>
-      </c>
-      <c r="K4">
-        <v>-0.002351533235689906</v>
-      </c>
-      <c r="L4">
-        <v>0.01895979495127779</v>
-      </c>
-      <c r="M4">
-        <v>0.0213113281869677</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="2">
-        <v>43468</v>
-      </c>
-      <c r="B5">
-        <v>-0.01437140681067996</v>
-      </c>
-      <c r="C5">
-        <v>0.006029594950748981</v>
-      </c>
-      <c r="D5">
-        <v>0.02040100176142894</v>
-      </c>
-      <c r="E5">
-        <v>-0.002347481293098961</v>
-      </c>
-      <c r="F5">
-        <v>-0.001114083980204146</v>
-      </c>
-      <c r="G5">
-        <v>0.001233397312894815</v>
-      </c>
-      <c r="H5">
-        <v>-0.004463858392987965</v>
-      </c>
-      <c r="I5">
-        <v>-0.002162501257339382</v>
-      </c>
-      <c r="J5">
-        <v>0.002301357135648583</v>
-      </c>
-      <c r="K5">
-        <v>-0.005054024448394552</v>
-      </c>
-      <c r="L5">
-        <v>0.02374142432484177</v>
-      </c>
-      <c r="M5">
-        <v>0.02879544877323632</v>
+        <v>0.1042738159339523</v>
       </c>
     </row>
   </sheetData>

--- a/data/summary.xlsx
+++ b/data/summary.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,34 +468,3818 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
+        <v>43467</v>
+      </c>
+      <c r="B4">
+        <v>-0.01359705220475058</v>
+      </c>
+      <c r="C4">
+        <v>0.01133596645325934</v>
+      </c>
+      <c r="D4">
+        <v>0.02493301865800992</v>
+      </c>
+      <c r="E4">
+        <v>0.004910446590142014</v>
+      </c>
+      <c r="F4">
+        <v>0.0027913032218936</v>
+      </c>
+      <c r="G4">
+        <v>-0.002119143368248413</v>
+      </c>
+      <c r="H4">
+        <v>-0.01523992405625496</v>
+      </c>
+      <c r="I4">
+        <v>-0.00761814775567264</v>
+      </c>
+      <c r="J4">
+        <v>0.007621776300582323</v>
+      </c>
+      <c r="K4">
+        <v>-0.003390337803360485</v>
+      </c>
+      <c r="L4">
+        <v>0.01947230396168908</v>
+      </c>
+      <c r="M4">
+        <v>0.02286264176504956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2">
+        <v>43468</v>
+      </c>
+      <c r="B5">
+        <v>-0.004187748015980463</v>
+      </c>
+      <c r="C5">
+        <v>0.00786132809311773</v>
+      </c>
+      <c r="D5">
+        <v>0.01204907610909819</v>
+      </c>
+      <c r="E5">
+        <v>-0.002467785113602484</v>
+      </c>
+      <c r="F5">
+        <v>-0.001126617830042759</v>
+      </c>
+      <c r="G5">
+        <v>0.001341167283559725</v>
+      </c>
+      <c r="H5">
+        <v>-0.0002829810363704972</v>
+      </c>
+      <c r="I5">
+        <v>-0.0001396621168175523</v>
+      </c>
+      <c r="J5">
+        <v>0.000143318919552945</v>
+      </c>
+      <c r="K5">
+        <v>-0.003359704324940453</v>
+      </c>
+      <c r="L5">
+        <v>0.02319839491816461</v>
+      </c>
+      <c r="M5">
+        <v>0.02655809924310506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B6">
+        <v>-0.005070965189888909</v>
+      </c>
+      <c r="C6">
+        <v>0.01136587142983986</v>
+      </c>
+      <c r="D6">
+        <v>0.01643683661972878</v>
+      </c>
+      <c r="E6">
+        <v>-0.0276547167786273</v>
+      </c>
+      <c r="F6">
+        <v>0.002819022211254546</v>
+      </c>
+      <c r="G6">
+        <v>0.03047373898988184</v>
+      </c>
+      <c r="H6">
+        <v>0.004082441024713688</v>
+      </c>
+      <c r="I6">
+        <v>0.007228897966036031</v>
+      </c>
+      <c r="J6">
+        <v>0.003146456941322344</v>
+      </c>
+      <c r="K6">
+        <v>-0.005613922019766524</v>
+      </c>
+      <c r="L6">
+        <v>0.0362977479619782</v>
+      </c>
+      <c r="M6">
+        <v>0.04191166998174473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2">
+        <v>43472</v>
+      </c>
+      <c r="B7">
+        <v>-0.01071753694284663</v>
+      </c>
+      <c r="C7">
+        <v>0.01046113978687994</v>
+      </c>
+      <c r="D7">
+        <v>0.02117867672972657</v>
+      </c>
+      <c r="E7">
+        <v>-0.01963852629562559</v>
+      </c>
+      <c r="F7">
+        <v>0.0002051602748224097</v>
+      </c>
+      <c r="G7">
+        <v>0.019843686570448</v>
+      </c>
+      <c r="H7">
+        <v>0.008437655604136056</v>
+      </c>
+      <c r="I7">
+        <v>0.009696345247457773</v>
+      </c>
+      <c r="J7">
+        <v>0.001258689643321716</v>
+      </c>
+      <c r="K7">
+        <v>-0.002678266163544432</v>
+      </c>
+      <c r="L7">
+        <v>0.01894098252395742</v>
+      </c>
+      <c r="M7">
+        <v>0.02161924868750185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2">
+        <v>43473</v>
+      </c>
+      <c r="B8">
+        <v>-0.006888089953886843</v>
+      </c>
+      <c r="C8">
+        <v>0.006529316456321353</v>
+      </c>
+      <c r="D8">
+        <v>0.0134174064102082</v>
+      </c>
+      <c r="E8">
+        <v>-0.003586717130756501</v>
+      </c>
+      <c r="F8">
+        <v>0.001257375938195289</v>
+      </c>
+      <c r="G8">
+        <v>0.00484409306895179</v>
+      </c>
+      <c r="H8">
+        <v>0.01087699058349539</v>
+      </c>
+      <c r="I8">
+        <v>0.01176005847924588</v>
+      </c>
+      <c r="J8">
+        <v>0.000883067895750494</v>
+      </c>
+      <c r="K8">
+        <v>0.0004586919451170035</v>
+      </c>
+      <c r="L8">
+        <v>0.0141478698384316</v>
+      </c>
+      <c r="M8">
+        <v>0.0136891778933146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2">
+        <v>43474</v>
+      </c>
+      <c r="B9">
+        <v>0.003556018648951117</v>
+      </c>
+      <c r="C9">
+        <v>0.002580403246602862</v>
+      </c>
+      <c r="D9">
+        <v>-0.0009756154023482542</v>
+      </c>
+      <c r="E9">
+        <v>-0.02276721347381814</v>
+      </c>
+      <c r="F9">
+        <v>0.004207211792593671</v>
+      </c>
+      <c r="G9">
+        <v>0.02697442526641181</v>
+      </c>
+      <c r="H9">
+        <v>-0.002136286351057775</v>
+      </c>
+      <c r="I9">
+        <v>0.02268446304329107</v>
+      </c>
+      <c r="J9">
+        <v>0.02482074939434885</v>
+      </c>
+      <c r="K9">
+        <v>-0.007755613426030515</v>
+      </c>
+      <c r="L9">
+        <v>0.02498001437366718</v>
+      </c>
+      <c r="M9">
+        <v>0.03273562779969769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2">
+        <v>43475</v>
+      </c>
+      <c r="B10">
+        <v>0.009456690557200744</v>
+      </c>
+      <c r="C10">
+        <v>0.02010117806065071</v>
+      </c>
+      <c r="D10">
+        <v>0.01064448750344997</v>
+      </c>
+      <c r="E10">
+        <v>-0.03962644508945513</v>
+      </c>
+      <c r="F10">
+        <v>0.001091474497267039</v>
+      </c>
+      <c r="G10">
+        <v>0.04071791958672216</v>
+      </c>
+      <c r="H10">
+        <v>-0.004552993789689215</v>
+      </c>
+      <c r="I10">
+        <v>0.015563174038864</v>
+      </c>
+      <c r="J10">
+        <v>0.02011616782855322</v>
+      </c>
+      <c r="K10">
+        <v>-0.0154015195580402</v>
+      </c>
+      <c r="L10">
+        <v>0.02922673623798417</v>
+      </c>
+      <c r="M10">
+        <v>0.04462825579602437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2">
+        <v>43476</v>
+      </c>
+      <c r="B11">
+        <v>0.04089779685276966</v>
+      </c>
+      <c r="C11">
+        <v>0.02268644137089401</v>
+      </c>
+      <c r="D11">
+        <v>-0.01821135548187565</v>
+      </c>
+      <c r="E11">
+        <v>0.007477566903068776</v>
+      </c>
+      <c r="F11">
+        <v>0.003745759050122065</v>
+      </c>
+      <c r="G11">
+        <v>-0.00373180785294671</v>
+      </c>
+      <c r="H11">
+        <v>-0.006848483677093778</v>
+      </c>
+      <c r="I11">
+        <v>0.0219989246302591</v>
+      </c>
+      <c r="J11">
+        <v>0.02884740830735288</v>
+      </c>
+      <c r="K11">
+        <v>-0.001853698587729174</v>
+      </c>
+      <c r="L11">
+        <v>0.03918720280455705</v>
+      </c>
+      <c r="M11">
+        <v>0.04104090139228622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2">
+        <v>43479</v>
+      </c>
+      <c r="B12">
+        <v>-0.01262052970605582</v>
+      </c>
+      <c r="C12">
+        <v>0.01034626952133771</v>
+      </c>
+      <c r="D12">
+        <v>0.02296679922739352</v>
+      </c>
+      <c r="E12">
+        <v>0.00550247910348583</v>
+      </c>
+      <c r="F12">
+        <v>0.002754333842507955</v>
+      </c>
+      <c r="G12">
+        <v>-0.002748145260977875</v>
+      </c>
+      <c r="H12">
+        <v>-0.01415795274006014</v>
+      </c>
+      <c r="I12">
+        <v>0.02361056666231423</v>
+      </c>
+      <c r="J12">
+        <v>0.03776851940237437</v>
+      </c>
+      <c r="K12">
+        <v>-0.001373562747077799</v>
+      </c>
+      <c r="L12">
+        <v>0.02116110624269351</v>
+      </c>
+      <c r="M12">
+        <v>0.02253466898977131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2">
+        <v>43480</v>
+      </c>
+      <c r="B13">
+        <v>-0.003167924989704566</v>
+      </c>
+      <c r="C13">
+        <v>0.02163763989059247</v>
+      </c>
+      <c r="D13">
+        <v>0.02480556488029704</v>
+      </c>
+      <c r="E13">
+        <v>-0.0157423250769942</v>
+      </c>
+      <c r="F13">
+        <v>9.201240896005304E-05</v>
+      </c>
+      <c r="G13">
+        <v>0.01583433748595425</v>
+      </c>
+      <c r="H13">
+        <v>-0.04378365986784827</v>
+      </c>
+      <c r="I13">
+        <v>0.02564113376405717</v>
+      </c>
+      <c r="J13">
+        <v>0.06942479363190543</v>
+      </c>
+      <c r="K13">
+        <v>-0.001979255997361941</v>
+      </c>
+      <c r="L13">
+        <v>0.0175712595105355</v>
+      </c>
+      <c r="M13">
+        <v>0.01955051550789744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2">
+        <v>43481</v>
+      </c>
+      <c r="B14">
+        <v>-0.0002992239499600187</v>
+      </c>
+      <c r="C14">
+        <v>0.01960681479730911</v>
+      </c>
+      <c r="D14">
+        <v>0.01990603874726913</v>
+      </c>
+      <c r="E14">
+        <v>-0.03319032748493711</v>
+      </c>
+      <c r="F14">
+        <v>0.002730293595390214</v>
+      </c>
+      <c r="G14">
+        <v>0.03592062108032733</v>
+      </c>
+      <c r="H14">
+        <v>-0.04645911280405004</v>
+      </c>
+      <c r="I14">
+        <v>0.03059458033871866</v>
+      </c>
+      <c r="J14">
+        <v>0.07705369314276871</v>
+      </c>
+      <c r="K14">
+        <v>-0.01364727481024132</v>
+      </c>
+      <c r="L14">
+        <v>0.03871207657180451</v>
+      </c>
+      <c r="M14">
+        <v>0.05235935138204584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2">
+        <v>43482</v>
+      </c>
+      <c r="B15">
+        <v>-0.07049379628580128</v>
+      </c>
+      <c r="C15">
+        <v>0.02311839545526646</v>
+      </c>
+      <c r="D15">
+        <v>0.09361219174106775</v>
+      </c>
+      <c r="E15">
+        <v>-0.0886324803852918</v>
+      </c>
+      <c r="F15">
+        <v>0.009463337854865151</v>
+      </c>
+      <c r="G15">
+        <v>0.09809581824015695</v>
+      </c>
+      <c r="H15">
+        <v>-0.07322703001299342</v>
+      </c>
+      <c r="I15">
+        <v>0.02476450446794946</v>
+      </c>
+      <c r="J15">
+        <v>0.09799153448094287</v>
+      </c>
+      <c r="K15">
+        <v>-0.04388032916803276</v>
+      </c>
+      <c r="L15">
+        <v>0.06030576342726224</v>
+      </c>
+      <c r="M15">
+        <v>0.104186092595295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2">
+        <v>43483</v>
+      </c>
+      <c r="B16">
+        <v>0.08440687326471605</v>
+      </c>
+      <c r="C16">
+        <v>0.04222434409964776</v>
+      </c>
+      <c r="D16">
+        <v>-0.04218252916506829</v>
+      </c>
+      <c r="E16">
+        <v>-0.0451842280543753</v>
+      </c>
+      <c r="F16">
+        <v>0.007523473310714445</v>
+      </c>
+      <c r="G16">
+        <v>0.05270770136508975</v>
+      </c>
+      <c r="H16">
+        <v>-0.09857524118349119</v>
+      </c>
+      <c r="I16">
+        <v>0.02586145948054506</v>
+      </c>
+      <c r="J16">
+        <v>0.1244367006640362</v>
+      </c>
+      <c r="K16">
+        <v>-0.07780574422752749</v>
+      </c>
+      <c r="L16">
+        <v>0.08263157627345816</v>
+      </c>
+      <c r="M16">
+        <v>0.1604373205009856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2">
+        <v>43486</v>
+      </c>
+      <c r="B17">
+        <v>-0.02118864629795883</v>
+      </c>
+      <c r="C17">
+        <v>-0.01057549029865256</v>
+      </c>
+      <c r="D17">
+        <v>0.01061315599930627</v>
+      </c>
+      <c r="E17">
+        <v>-0.1118520186676165</v>
+      </c>
+      <c r="F17">
+        <v>0.01158636812975978</v>
+      </c>
+      <c r="G17">
+        <v>0.1234383867973763</v>
+      </c>
+      <c r="H17">
+        <v>-0.09962195736116164</v>
+      </c>
+      <c r="I17">
+        <v>0.03881114827380497</v>
+      </c>
+      <c r="J17">
+        <v>0.1384331056349666</v>
+      </c>
+      <c r="K17">
+        <v>-0.04268724938112369</v>
+      </c>
+      <c r="L17">
+        <v>0.07327834619105345</v>
+      </c>
+      <c r="M17">
+        <v>0.1159655955721771</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2">
+        <v>43487</v>
+      </c>
+      <c r="B18">
+        <v>-0.0006479056267652626</v>
+      </c>
+      <c r="C18">
+        <v>0.06087138069981318</v>
+      </c>
+      <c r="D18">
+        <v>0.06151928632657844</v>
+      </c>
+      <c r="E18">
+        <v>-0.01682320992355943</v>
+      </c>
+      <c r="F18">
+        <v>0.004727555560489139</v>
+      </c>
+      <c r="G18">
+        <v>0.02155076548404856</v>
+      </c>
+      <c r="H18">
+        <v>-0.06645902275540659</v>
+      </c>
+      <c r="I18">
+        <v>0.02737273392835414</v>
+      </c>
+      <c r="J18">
+        <v>0.09383175668376073</v>
+      </c>
+      <c r="K18">
+        <v>-0.05396333495990591</v>
+      </c>
+      <c r="L18">
+        <v>0.07512344577144082</v>
+      </c>
+      <c r="M18">
+        <v>0.1290867807313467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2">
         <v>43488</v>
       </c>
-      <c r="B4">
+      <c r="B19">
         <v>0.005227893291896007</v>
       </c>
-      <c r="C4">
+      <c r="C19">
         <v>0.01314771900906171</v>
       </c>
-      <c r="D4">
+      <c r="D19">
         <v>0.0079198257171657</v>
       </c>
-      <c r="E4">
+      <c r="E19">
         <v>-0.05076062320217372</v>
       </c>
-      <c r="F4">
+      <c r="F19">
         <v>0.02300771063455507</v>
       </c>
-      <c r="G4">
+      <c r="G19">
         <v>0.07376833383672879</v>
       </c>
-      <c r="H4">
+      <c r="H19">
         <v>-0.04305108288316703</v>
       </c>
-      <c r="I4">
+      <c r="I19">
         <v>0.06122273305078525</v>
       </c>
-      <c r="J4">
+      <c r="J19">
         <v>0.1042738159339523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2">
+        <v>43489</v>
+      </c>
+      <c r="B20">
+        <v>0.01870443432043679</v>
+      </c>
+      <c r="C20">
+        <v>0.02083554889441527</v>
+      </c>
+      <c r="D20">
+        <v>0.002131114573978481</v>
+      </c>
+      <c r="E20">
+        <v>-0.04670191914212657</v>
+      </c>
+      <c r="F20">
+        <v>0.007146234898672955</v>
+      </c>
+      <c r="G20">
+        <v>0.05384815404079953</v>
+      </c>
+      <c r="H20">
+        <v>-0.04068811313540712</v>
+      </c>
+      <c r="I20">
+        <v>0.04659612464602111</v>
+      </c>
+      <c r="J20">
+        <v>0.08728423778142823</v>
+      </c>
+      <c r="K20">
+        <v>-0.02870116001511364</v>
+      </c>
+      <c r="L20">
+        <v>0.02827767621435266</v>
+      </c>
+      <c r="M20">
+        <v>0.0569788362294663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2">
+        <v>43490</v>
+      </c>
+      <c r="B21">
+        <v>-0.01067362614902804</v>
+      </c>
+      <c r="C21">
+        <v>0.02382026038510259</v>
+      </c>
+      <c r="D21">
+        <v>0.03449388653413062</v>
+      </c>
+      <c r="K21">
+        <v>-0.008267706363237252</v>
+      </c>
+      <c r="L21">
+        <v>0.01275938209759311</v>
+      </c>
+      <c r="M21">
+        <v>0.02102708846083037</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2">
+        <v>43493</v>
+      </c>
+      <c r="B22">
+        <v>-0.01311249065846615</v>
+      </c>
+      <c r="C22">
+        <v>0.02367844022593812</v>
+      </c>
+      <c r="D22">
+        <v>0.03679093088440426</v>
+      </c>
+      <c r="K22">
+        <v>-0.05284576492545426</v>
+      </c>
+      <c r="L22">
+        <v>0.03330893334262211</v>
+      </c>
+      <c r="M22">
+        <v>0.08615469826807637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2">
+        <v>43494</v>
+      </c>
+      <c r="B23">
+        <v>0.009110898669103629</v>
+      </c>
+      <c r="C23">
+        <v>0.01443747832934047</v>
+      </c>
+      <c r="D23">
+        <v>0.005326579660236845</v>
+      </c>
+      <c r="K23">
+        <v>-0.03672971446687591</v>
+      </c>
+      <c r="L23">
+        <v>0.03465580573248728</v>
+      </c>
+      <c r="M23">
+        <v>0.07138552019936319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2">
+        <v>43495</v>
+      </c>
+      <c r="B24">
+        <v>0.01780553359031043</v>
+      </c>
+      <c r="C24">
+        <v>0.0154794684766681</v>
+      </c>
+      <c r="D24">
+        <v>-0.002326065113642339</v>
+      </c>
+      <c r="K24">
+        <v>-0.03102669714840178</v>
+      </c>
+      <c r="L24">
+        <v>0.0366641401171467</v>
+      </c>
+      <c r="M24">
+        <v>0.06769083726554848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2">
+        <v>43496</v>
+      </c>
+      <c r="B25">
+        <v>-0.0312196411380839</v>
+      </c>
+      <c r="C25">
+        <v>0.01829113041363625</v>
+      </c>
+      <c r="D25">
+        <v>0.04951077155172016</v>
+      </c>
+      <c r="K25">
+        <v>-0.02343665341506056</v>
+      </c>
+      <c r="L25">
+        <v>0.04263059104196578</v>
+      </c>
+      <c r="M25">
+        <v>0.06606724445702634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B26">
+        <v>-0.008212511741988553</v>
+      </c>
+      <c r="C26">
+        <v>0.02730825478159849</v>
+      </c>
+      <c r="D26">
+        <v>0.03552076652358704</v>
+      </c>
+      <c r="K26">
+        <v>-0.002160976415397963</v>
+      </c>
+      <c r="L26">
+        <v>0.03392569020938706</v>
+      </c>
+      <c r="M26">
+        <v>0.03608666662478502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2">
+        <v>43507</v>
+      </c>
+      <c r="B27">
+        <v>-0.1025751531942585</v>
+      </c>
+      <c r="C27">
+        <v>0.02948414472843347</v>
+      </c>
+      <c r="D27">
+        <v>0.132059297922692</v>
+      </c>
+      <c r="K27">
+        <v>-0.01614867941201682</v>
+      </c>
+      <c r="L27">
+        <v>0.03181405350089409</v>
+      </c>
+      <c r="M27">
+        <v>0.04796273291291091</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2">
+        <v>43508</v>
+      </c>
+      <c r="B28">
+        <v>-0.09333310142266157</v>
+      </c>
+      <c r="C28">
+        <v>0.03450185808572319</v>
+      </c>
+      <c r="D28">
+        <v>0.1278349595083848</v>
+      </c>
+      <c r="K28">
+        <v>-0.01836124118342617</v>
+      </c>
+      <c r="L28">
+        <v>0.03872335001257098</v>
+      </c>
+      <c r="M28">
+        <v>0.05708459119599715</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2">
+        <v>43509</v>
+      </c>
+      <c r="B29">
+        <v>-0.01177595694194414</v>
+      </c>
+      <c r="C29">
+        <v>0.02329276034347245</v>
+      </c>
+      <c r="D29">
+        <v>0.03506871728541659</v>
+      </c>
+      <c r="E29">
+        <v>-0.1009967036930848</v>
+      </c>
+      <c r="F29">
+        <v>0.02556484350234281</v>
+      </c>
+      <c r="G29">
+        <v>0.1265615471954276</v>
+      </c>
+      <c r="H29">
+        <v>-0.04708241962682816</v>
+      </c>
+      <c r="I29">
+        <v>0.05052893835875859</v>
+      </c>
+      <c r="J29">
+        <v>0.09761135798558676</v>
+      </c>
+      <c r="K29">
+        <v>0.003943316292396553</v>
+      </c>
+      <c r="L29">
+        <v>0.03922855110814819</v>
+      </c>
+      <c r="M29">
+        <v>0.03528523481575163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2">
+        <v>43510</v>
+      </c>
+      <c r="B30">
+        <v>-0.0212612218226745</v>
+      </c>
+      <c r="C30">
+        <v>0.02979121346319057</v>
+      </c>
+      <c r="D30">
+        <v>0.05105243528586507</v>
+      </c>
+      <c r="E30">
+        <v>-0.03418257657976609</v>
+      </c>
+      <c r="F30">
+        <v>0.01780559360854307</v>
+      </c>
+      <c r="G30">
+        <v>0.05198817018830915</v>
+      </c>
+      <c r="H30">
+        <v>-0.0261498505016152</v>
+      </c>
+      <c r="I30">
+        <v>0.04007676836897289</v>
+      </c>
+      <c r="J30">
+        <v>0.06622661887058809</v>
+      </c>
+      <c r="K30">
+        <v>-0.007496524154470992</v>
+      </c>
+      <c r="L30">
+        <v>0.02426993258983594</v>
+      </c>
+      <c r="M30">
+        <v>0.03176645674430693</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2">
+        <v>43511</v>
+      </c>
+      <c r="B31">
+        <v>-0.02731371812385047</v>
+      </c>
+      <c r="C31">
+        <v>0.0336997427503691</v>
+      </c>
+      <c r="D31">
+        <v>0.06101346087421956</v>
+      </c>
+      <c r="K31">
+        <v>0.003424818098913717</v>
+      </c>
+      <c r="L31">
+        <v>0.001797456339309466</v>
+      </c>
+      <c r="M31">
+        <v>-0.001627361759604251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2">
+        <v>43514</v>
+      </c>
+      <c r="B32">
+        <v>-0.007494628106129447</v>
+      </c>
+      <c r="C32">
+        <v>0.02577742714256734</v>
+      </c>
+      <c r="D32">
+        <v>0.03327205524869679</v>
+      </c>
+      <c r="E32">
+        <v>-0.01927673492727832</v>
+      </c>
+      <c r="F32">
+        <v>0.01285668662173304</v>
+      </c>
+      <c r="G32">
+        <v>0.03213342154901137</v>
+      </c>
+      <c r="H32">
+        <v>-0.01488366005314189</v>
+      </c>
+      <c r="I32">
+        <v>0.02252569497587508</v>
+      </c>
+      <c r="J32">
+        <v>0.03740935502901698</v>
+      </c>
+      <c r="K32">
+        <v>-0.01629208288330046</v>
+      </c>
+      <c r="L32">
+        <v>-0.008141778134109099</v>
+      </c>
+      <c r="M32">
+        <v>0.008150304749191357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="2">
+        <v>43515</v>
+      </c>
+      <c r="B33">
+        <v>-0.002242264517627189</v>
+      </c>
+      <c r="C33">
+        <v>0.02135677600519095</v>
+      </c>
+      <c r="D33">
+        <v>0.02359904052281814</v>
+      </c>
+      <c r="E33">
+        <v>-0.01249861205665549</v>
+      </c>
+      <c r="F33">
+        <v>0.006825481973096958</v>
+      </c>
+      <c r="G33">
+        <v>0.01932409402975245</v>
+      </c>
+      <c r="H33">
+        <v>-0.01019250398710505</v>
+      </c>
+      <c r="I33">
+        <v>0.02378986595864199</v>
+      </c>
+      <c r="J33">
+        <v>0.03398236994574704</v>
+      </c>
+      <c r="K33">
+        <v>-0.001275982661967757</v>
+      </c>
+      <c r="L33">
+        <v>0.005348852197871793</v>
+      </c>
+      <c r="M33">
+        <v>0.00662483485983955</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2">
+        <v>43516</v>
+      </c>
+      <c r="B34">
+        <v>0.006132014022341412</v>
+      </c>
+      <c r="C34">
+        <v>0.02168902133440407</v>
+      </c>
+      <c r="D34">
+        <v>0.01555700731206265</v>
+      </c>
+      <c r="E34">
+        <v>-0.002761185383712143</v>
+      </c>
+      <c r="F34">
+        <v>0.00472383227019998</v>
+      </c>
+      <c r="G34">
+        <v>0.007485017653912123</v>
+      </c>
+      <c r="H34">
+        <v>-0.01945891684618054</v>
+      </c>
+      <c r="I34">
+        <v>0.02204652017015112</v>
+      </c>
+      <c r="J34">
+        <v>0.04150543701633166</v>
+      </c>
+      <c r="K34">
+        <v>-0.004373191420996063</v>
+      </c>
+      <c r="L34">
+        <v>0.008531499366692324</v>
+      </c>
+      <c r="M34">
+        <v>0.01290469078768839</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2">
+        <v>43517</v>
+      </c>
+      <c r="B35">
+        <v>0.005557024155470011</v>
+      </c>
+      <c r="C35">
+        <v>0.01907213414586896</v>
+      </c>
+      <c r="D35">
+        <v>0.01351510999039895</v>
+      </c>
+      <c r="E35">
+        <v>-0.03693717746598076</v>
+      </c>
+      <c r="F35">
+        <v>0.004651193759611741</v>
+      </c>
+      <c r="G35">
+        <v>0.0415883712255925</v>
+      </c>
+      <c r="H35">
+        <v>-0.01276555913040218</v>
+      </c>
+      <c r="I35">
+        <v>0.02884350421129071</v>
+      </c>
+      <c r="J35">
+        <v>0.04160906334169289</v>
+      </c>
+      <c r="K35">
+        <v>-0.0117479991693778</v>
+      </c>
+      <c r="L35">
+        <v>0.02412719708709056</v>
+      </c>
+      <c r="M35">
+        <v>0.03587519625646836</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2">
+        <v>43518</v>
+      </c>
+      <c r="B36">
+        <v>-0.01818095459302185</v>
+      </c>
+      <c r="C36">
+        <v>0.02710329685856527</v>
+      </c>
+      <c r="D36">
+        <v>0.04528425145158712</v>
+      </c>
+      <c r="E36">
+        <v>-0.05069553812273275</v>
+      </c>
+      <c r="F36">
+        <v>0.02064009398958491</v>
+      </c>
+      <c r="G36">
+        <v>0.07133563211231765</v>
+      </c>
+      <c r="H36">
+        <v>-0.01985866617913056</v>
+      </c>
+      <c r="I36">
+        <v>0.04338333544861755</v>
+      </c>
+      <c r="J36">
+        <v>0.06324200162774811</v>
+      </c>
+      <c r="K36">
+        <v>-0.003272508220914931</v>
+      </c>
+      <c r="L36">
+        <v>0.01575555178663075</v>
+      </c>
+      <c r="M36">
+        <v>0.01902806000754568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2">
+        <v>43521</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2">
+        <v>43522</v>
+      </c>
+      <c r="B38">
+        <v>-0.008712609247219298</v>
+      </c>
+      <c r="C38">
+        <v>0.03314207970992569</v>
+      </c>
+      <c r="D38">
+        <v>0.04185468895714499</v>
+      </c>
+      <c r="E38">
+        <v>-0.04692944316479214</v>
+      </c>
+      <c r="F38">
+        <v>0.008868780351160161</v>
+      </c>
+      <c r="G38">
+        <v>0.0557982235159523</v>
+      </c>
+      <c r="H38">
+        <v>-0.004958988036407137</v>
+      </c>
+      <c r="I38">
+        <v>0.01168417635714814</v>
+      </c>
+      <c r="J38">
+        <v>0.01664316439355527</v>
+      </c>
+      <c r="K38">
+        <v>0.001007436757964404</v>
+      </c>
+      <c r="L38">
+        <v>0.008028621081015097</v>
+      </c>
+      <c r="M38">
+        <v>0.007021184323050694</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2">
+        <v>43523</v>
+      </c>
+      <c r="B39">
+        <v>0.01205194090398513</v>
+      </c>
+      <c r="C39">
+        <v>0.01079766859030902</v>
+      </c>
+      <c r="D39">
+        <v>-0.00125427231367611</v>
+      </c>
+      <c r="H39">
+        <v>-0.005681149563743616</v>
+      </c>
+      <c r="I39">
+        <v>0.01364758204888036</v>
+      </c>
+      <c r="J39">
+        <v>0.01932873161262398</v>
+      </c>
+      <c r="K39">
+        <v>-0.002855301825603061</v>
+      </c>
+      <c r="L39">
+        <v>0.01401654012648607</v>
+      </c>
+      <c r="M39">
+        <v>0.01687184195208913</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B40">
+        <v>-0.009776436731572311</v>
+      </c>
+      <c r="C40">
+        <v>-0.004648916105854514</v>
+      </c>
+      <c r="D40">
+        <v>0.005127520625717797</v>
+      </c>
+      <c r="E40">
+        <v>-0.01701948047196443</v>
+      </c>
+      <c r="F40">
+        <v>-0.008509224822746526</v>
+      </c>
+      <c r="G40">
+        <v>0.008510255649217901</v>
+      </c>
+      <c r="H40">
+        <v>-0.003422423889996823</v>
+      </c>
+      <c r="I40">
+        <v>0.01537247274737315</v>
+      </c>
+      <c r="J40">
+        <v>0.01879489663736997</v>
+      </c>
+      <c r="K40">
+        <v>-0.001818818804997493</v>
+      </c>
+      <c r="L40">
+        <v>0.0159719968799992</v>
+      </c>
+      <c r="M40">
+        <v>0.01779081568499669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B41">
+        <v>0.01535382627881892</v>
+      </c>
+      <c r="C41">
+        <v>0.007691728071806473</v>
+      </c>
+      <c r="D41">
+        <v>-0.007662098207012443</v>
+      </c>
+      <c r="E41">
+        <v>-0.02339387088200369</v>
+      </c>
+      <c r="F41">
+        <v>-0.01169344380919149</v>
+      </c>
+      <c r="G41">
+        <v>0.0117004270728122</v>
+      </c>
+      <c r="H41">
+        <v>-0.0002176208849493515</v>
+      </c>
+      <c r="I41">
+        <v>-6.211135576162021E-05</v>
+      </c>
+      <c r="J41">
+        <v>0.0001555095291877313</v>
+      </c>
+      <c r="K41">
+        <v>-0.003385283885943248</v>
+      </c>
+      <c r="L41">
+        <v>0.02102742641543076</v>
+      </c>
+      <c r="M41">
+        <v>0.02441271030137401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="2">
+        <v>43528</v>
+      </c>
+      <c r="B42">
+        <v>0.03114523957641204</v>
+      </c>
+      <c r="C42">
+        <v>0.01558703208965801</v>
+      </c>
+      <c r="D42">
+        <v>-0.01555820748675403</v>
+      </c>
+      <c r="E42">
+        <v>-0.007203237431308122</v>
+      </c>
+      <c r="F42">
+        <v>-0.003600714283857746</v>
+      </c>
+      <c r="G42">
+        <v>0.003602523147450376</v>
+      </c>
+      <c r="H42">
+        <v>-0.01527770332556356</v>
+      </c>
+      <c r="I42">
+        <v>-0.007638319932113595</v>
+      </c>
+      <c r="J42">
+        <v>0.007639383393449961</v>
+      </c>
+      <c r="K42">
+        <v>-0.01087942588099899</v>
+      </c>
+      <c r="L42">
+        <v>-0.005415966920584149</v>
+      </c>
+      <c r="M42">
+        <v>0.005463458960414843</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="2">
+        <v>43529</v>
+      </c>
+      <c r="B43">
+        <v>-0.01070119916195521</v>
+      </c>
+      <c r="C43">
+        <v>-0.00535017050021539</v>
+      </c>
+      <c r="D43">
+        <v>0.005351028661739822</v>
+      </c>
+      <c r="E43">
+        <v>-0.06833375957786578</v>
+      </c>
+      <c r="F43">
+        <v>-0.03416539989853165</v>
+      </c>
+      <c r="G43">
+        <v>0.03416835967933413</v>
+      </c>
+      <c r="H43">
+        <v>-0.03745129371590009</v>
+      </c>
+      <c r="I43">
+        <v>-0.01872562830687452</v>
+      </c>
+      <c r="J43">
+        <v>0.01872566540902557</v>
+      </c>
+      <c r="K43">
+        <v>-0.04178912978227368</v>
+      </c>
+      <c r="L43">
+        <v>-0.02089374179565892</v>
+      </c>
+      <c r="M43">
+        <v>0.02089538798661476</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="2">
+        <v>43530</v>
+      </c>
+      <c r="B44">
+        <v>-0.01270506385241757</v>
+      </c>
+      <c r="C44">
+        <v>-0.006352373572329682</v>
+      </c>
+      <c r="D44">
+        <v>0.006352690280087891</v>
+      </c>
+      <c r="E44">
+        <v>-0.05978533142614124</v>
+      </c>
+      <c r="F44">
+        <v>-0.02989069121085356</v>
+      </c>
+      <c r="G44">
+        <v>0.02989464021528769</v>
+      </c>
+      <c r="H44">
+        <v>-0.06165071268953773</v>
+      </c>
+      <c r="I44">
+        <v>-0.03082364314183585</v>
+      </c>
+      <c r="J44">
+        <v>0.03082706954770188</v>
+      </c>
+      <c r="K44">
+        <v>-0.02796460131502789</v>
+      </c>
+      <c r="L44">
+        <v>-0.01396790577701458</v>
+      </c>
+      <c r="M44">
+        <v>0.0139966955380133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="2">
+        <v>43531</v>
+      </c>
+      <c r="B45">
+        <v>-0.2154325025163856</v>
+      </c>
+      <c r="C45">
+        <v>0.03300853804433574</v>
+      </c>
+      <c r="D45">
+        <v>0.2484410405607213</v>
+      </c>
+      <c r="E45">
+        <v>-0.03890574494291498</v>
+      </c>
+      <c r="F45">
+        <v>-0.01945287213159563</v>
+      </c>
+      <c r="G45">
+        <v>0.01945287281131935</v>
+      </c>
+      <c r="H45">
+        <v>-0.03582104498698045</v>
+      </c>
+      <c r="I45">
+        <v>-0.01790986272667704</v>
+      </c>
+      <c r="J45">
+        <v>0.01791118226030341</v>
+      </c>
+      <c r="K45">
+        <v>-0.06755205088658092</v>
+      </c>
+      <c r="L45">
+        <v>-0.03377589568222019</v>
+      </c>
+      <c r="M45">
+        <v>0.03377615520436073</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="2">
+        <v>43532</v>
+      </c>
+      <c r="B46">
+        <v>0.02022458519948367</v>
+      </c>
+      <c r="C46">
+        <v>0.01011557289271956</v>
+      </c>
+      <c r="D46">
+        <v>-0.01010901230676411</v>
+      </c>
+      <c r="E46">
+        <v>0.00201670648872162</v>
+      </c>
+      <c r="F46">
+        <v>0.1214646960153125</v>
+      </c>
+      <c r="G46">
+        <v>0.1194479895265908</v>
+      </c>
+      <c r="H46">
+        <v>-0.003168363643002525</v>
+      </c>
+      <c r="I46">
+        <v>-0.00158409046053468</v>
+      </c>
+      <c r="J46">
+        <v>0.001584273182467844</v>
+      </c>
+      <c r="K46">
+        <v>-0.03217123285134703</v>
+      </c>
+      <c r="L46">
+        <v>-0.0160826544071389</v>
+      </c>
+      <c r="M46">
+        <v>0.01608857844420813</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="2">
+        <v>43535</v>
+      </c>
+      <c r="B47">
+        <v>-0.01894220756179952</v>
+      </c>
+      <c r="C47">
+        <v>-0.009469537545447569</v>
+      </c>
+      <c r="D47">
+        <v>0.00947267001635195</v>
+      </c>
+      <c r="E47">
+        <v>0.01272419054012282</v>
+      </c>
+      <c r="F47">
+        <v>0.05496541385452507</v>
+      </c>
+      <c r="G47">
+        <v>0.04224122331440225</v>
+      </c>
+      <c r="H47">
+        <v>-0.03398138973431786</v>
+      </c>
+      <c r="I47">
+        <v>-0.01698766324823906</v>
+      </c>
+      <c r="J47">
+        <v>0.0169937264860788</v>
+      </c>
+      <c r="K47">
+        <v>-0.05248354438692407</v>
+      </c>
+      <c r="L47">
+        <v>-0.02624174239926756</v>
+      </c>
+      <c r="M47">
+        <v>0.02624180198765651</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="2">
+        <v>43536</v>
+      </c>
+      <c r="B48">
+        <v>-0.01417939268354525</v>
+      </c>
+      <c r="C48">
+        <v>0.01651427303437228</v>
+      </c>
+      <c r="D48">
+        <v>0.03069366571791752</v>
+      </c>
+      <c r="E48">
+        <v>0.05944579745124125</v>
+      </c>
+      <c r="F48">
+        <v>0.04641960108623276</v>
+      </c>
+      <c r="G48">
+        <v>-0.01302619636500849</v>
+      </c>
+      <c r="H48">
+        <v>0.003862368065020651</v>
+      </c>
+      <c r="I48">
+        <v>0.001931195687241327</v>
+      </c>
+      <c r="J48">
+        <v>-0.001931172377779324</v>
+      </c>
+      <c r="K48">
+        <v>-0.03721789942447179</v>
+      </c>
+      <c r="L48">
+        <v>-0.01860885245777406</v>
+      </c>
+      <c r="M48">
+        <v>0.01860904696669773</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="2">
+        <v>43537</v>
+      </c>
+      <c r="B49">
+        <v>0.009872306445862077</v>
+      </c>
+      <c r="C49">
+        <v>0.01363079623875398</v>
+      </c>
+      <c r="D49">
+        <v>0.003758489792891899</v>
+      </c>
+      <c r="E49">
+        <v>0.02591153793454107</v>
+      </c>
+      <c r="F49">
+        <v>0.03780915522307145</v>
+      </c>
+      <c r="G49">
+        <v>0.01189761728853038</v>
+      </c>
+      <c r="H49">
+        <v>0.004604262488414672</v>
+      </c>
+      <c r="I49">
+        <v>0.002302348925101539</v>
+      </c>
+      <c r="J49">
+        <v>-0.002301913563313133</v>
+      </c>
+      <c r="K49">
+        <v>-0.01875928009948385</v>
+      </c>
+      <c r="L49">
+        <v>-0.009377338870718489</v>
+      </c>
+      <c r="M49">
+        <v>0.009381941228765362</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="2">
+        <v>43538</v>
+      </c>
+      <c r="B50">
+        <v>0.01217352601239186</v>
+      </c>
+      <c r="C50">
+        <v>0.008887444209458228</v>
+      </c>
+      <c r="D50">
+        <v>-0.003286081802933634</v>
+      </c>
+      <c r="E50">
+        <v>0.02150237234367281</v>
+      </c>
+      <c r="F50">
+        <v>0.02741531738209855</v>
+      </c>
+      <c r="G50">
+        <v>0.00591294503842574</v>
+      </c>
+      <c r="H50">
+        <v>0.02494723139550943</v>
+      </c>
+      <c r="I50">
+        <v>0.01275682745417352</v>
+      </c>
+      <c r="J50">
+        <v>-0.01219040394133591</v>
+      </c>
+      <c r="K50">
+        <v>0.007735038305163564</v>
+      </c>
+      <c r="L50">
+        <v>0.003871776677618174</v>
+      </c>
+      <c r="M50">
+        <v>-0.00386326162754539</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="2">
+        <v>43539</v>
+      </c>
+      <c r="B51">
+        <v>-0.04904410880890738</v>
+      </c>
+      <c r="C51">
+        <v>0.01877063817218108</v>
+      </c>
+      <c r="D51">
+        <v>0.06781474698108846</v>
+      </c>
+      <c r="E51">
+        <v>0.03555458311201781</v>
+      </c>
+      <c r="F51">
+        <v>0.02480825819906073</v>
+      </c>
+      <c r="G51">
+        <v>-0.01074632491295708</v>
+      </c>
+      <c r="H51">
+        <v>0.01669442425719029</v>
+      </c>
+      <c r="I51">
+        <v>0.033894679794944</v>
+      </c>
+      <c r="J51">
+        <v>0.01720025553775371</v>
+      </c>
+      <c r="K51">
+        <v>-0.01061816064090501</v>
+      </c>
+      <c r="L51">
+        <v>-0.005304900261029462</v>
+      </c>
+      <c r="M51">
+        <v>0.005313260379875547</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="2">
+        <v>43542</v>
+      </c>
+      <c r="B52">
+        <v>-0.02189619539691166</v>
+      </c>
+      <c r="C52">
+        <v>0.03501981667170487</v>
+      </c>
+      <c r="D52">
+        <v>0.05691601206861653</v>
+      </c>
+      <c r="E52">
+        <v>0.01011735613133814</v>
+      </c>
+      <c r="F52">
+        <v>0.006727360918327689</v>
+      </c>
+      <c r="G52">
+        <v>-0.003389995213010446</v>
+      </c>
+      <c r="H52">
+        <v>0.01722537608429581</v>
+      </c>
+      <c r="I52">
+        <v>0.008662382723638567</v>
+      </c>
+      <c r="J52">
+        <v>-0.008562993360657243</v>
+      </c>
+      <c r="K52">
+        <v>-0.009284041231598277</v>
+      </c>
+      <c r="L52">
+        <v>0.0005086445340179519</v>
+      </c>
+      <c r="M52">
+        <v>0.009792685765616229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="2">
+        <v>43543</v>
+      </c>
+      <c r="B53">
+        <v>-0.1166756349434707</v>
+      </c>
+      <c r="C53">
+        <v>0.0193320256956016</v>
+      </c>
+      <c r="D53">
+        <v>0.1360076606390724</v>
+      </c>
+      <c r="E53">
+        <v>0.01341676508637071</v>
+      </c>
+      <c r="F53">
+        <v>0.006709000087766176</v>
+      </c>
+      <c r="G53">
+        <v>-0.006707764998604536</v>
+      </c>
+      <c r="H53">
+        <v>0.001420818622555457</v>
+      </c>
+      <c r="I53">
+        <v>0.0007135274905542711</v>
+      </c>
+      <c r="J53">
+        <v>-0.0007072911320011859</v>
+      </c>
+      <c r="K53">
+        <v>-0.007179656918070433</v>
+      </c>
+      <c r="L53">
+        <v>-0.003444627996179755</v>
+      </c>
+      <c r="M53">
+        <v>0.003735028921890678</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2">
+        <v>43544</v>
+      </c>
+      <c r="B54">
+        <v>-0.0224450977546598</v>
+      </c>
+      <c r="C54">
+        <v>0.02626129406782671</v>
+      </c>
+      <c r="D54">
+        <v>0.04870639182248652</v>
+      </c>
+      <c r="E54">
+        <v>0.03130099277662696</v>
+      </c>
+      <c r="F54">
+        <v>0.02020290743064869</v>
+      </c>
+      <c r="G54">
+        <v>-0.01109808534597826</v>
+      </c>
+      <c r="H54">
+        <v>0.004888942745803063</v>
+      </c>
+      <c r="I54">
+        <v>0.002459354845748193</v>
+      </c>
+      <c r="J54">
+        <v>-0.002429587900054869</v>
+      </c>
+      <c r="K54">
+        <v>-0.03624600266153148</v>
+      </c>
+      <c r="L54">
+        <v>-0.01812192423215192</v>
+      </c>
+      <c r="M54">
+        <v>0.01812407842937956</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="2">
+        <v>43545</v>
+      </c>
+      <c r="B55">
+        <v>-0.06703948715959078</v>
+      </c>
+      <c r="C55">
+        <v>0.01909300556416479</v>
+      </c>
+      <c r="D55">
+        <v>0.08613249272375556</v>
+      </c>
+      <c r="E55">
+        <v>0.01968957188550432</v>
+      </c>
+      <c r="F55">
+        <v>0.009849207085557594</v>
+      </c>
+      <c r="G55">
+        <v>-0.009840364799946729</v>
+      </c>
+      <c r="H55">
+        <v>-0.01410943024530209</v>
+      </c>
+      <c r="I55">
+        <v>-0.00705470270236803</v>
+      </c>
+      <c r="J55">
+        <v>0.007054727542934058</v>
+      </c>
+      <c r="K55">
+        <v>-0.05026885257576649</v>
+      </c>
+      <c r="L55">
+        <v>-0.02513440617792092</v>
+      </c>
+      <c r="M55">
+        <v>0.02513444639784557</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="2">
+        <v>43546</v>
+      </c>
+      <c r="B56">
+        <v>-0.102354540259523</v>
+      </c>
+      <c r="C56">
+        <v>0.0345224648333106</v>
+      </c>
+      <c r="D56">
+        <v>0.1368770050928336</v>
+      </c>
+      <c r="E56">
+        <v>0.04082579157060804</v>
+      </c>
+      <c r="F56">
+        <v>0.02041331368104051</v>
+      </c>
+      <c r="G56">
+        <v>-0.02041247788956753</v>
+      </c>
+      <c r="H56">
+        <v>-0.01623800203541153</v>
+      </c>
+      <c r="I56">
+        <v>-0.00811629588145751</v>
+      </c>
+      <c r="J56">
+        <v>0.008121706153954021</v>
+      </c>
+      <c r="K56">
+        <v>-0.05120841758725716</v>
+      </c>
+      <c r="L56">
+        <v>-0.02559021228653702</v>
+      </c>
+      <c r="M56">
+        <v>0.02561820530072014</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="2">
+        <v>43549</v>
+      </c>
+      <c r="B57">
+        <v>-0.2303453151923117</v>
+      </c>
+      <c r="C57">
+        <v>0.03421152941182775</v>
+      </c>
+      <c r="D57">
+        <v>0.2645568446041395</v>
+      </c>
+      <c r="E57">
+        <v>-0.05248952726476518</v>
+      </c>
+      <c r="F57">
+        <v>0.02693445818746463</v>
+      </c>
+      <c r="G57">
+        <v>0.07942398545222981</v>
+      </c>
+      <c r="H57">
+        <v>0.00739040261118546</v>
+      </c>
+      <c r="I57">
+        <v>0.03716348277241425</v>
+      </c>
+      <c r="J57">
+        <v>0.02977308016122879</v>
+      </c>
+      <c r="K57">
+        <v>-0.02492377270317078</v>
+      </c>
+      <c r="L57">
+        <v>-0.01246117268125572</v>
+      </c>
+      <c r="M57">
+        <v>0.01246260002191506</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="2">
+        <v>43550</v>
+      </c>
+      <c r="B58">
+        <v>0.06648054375279311</v>
+      </c>
+      <c r="C58">
+        <v>0.05208342600750673</v>
+      </c>
+      <c r="D58">
+        <v>-0.01439711774528638</v>
+      </c>
+      <c r="E58">
+        <v>-0.06719087988210874</v>
+      </c>
+      <c r="F58">
+        <v>0.02455242042320279</v>
+      </c>
+      <c r="G58">
+        <v>0.09174330030531153</v>
+      </c>
+      <c r="H58">
+        <v>0.02498719090808457</v>
+      </c>
+      <c r="I58">
+        <v>0.0124937482761398</v>
+      </c>
+      <c r="J58">
+        <v>-0.01249344263194477</v>
+      </c>
+      <c r="K58">
+        <v>-0.01239706491599203</v>
+      </c>
+      <c r="L58">
+        <v>-0.006197751420093566</v>
+      </c>
+      <c r="M58">
+        <v>0.006199313495898464</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="2">
+        <v>43551</v>
+      </c>
+      <c r="B59">
+        <v>0.01332302342577158</v>
+      </c>
+      <c r="C59">
+        <v>0.01915014674777838</v>
+      </c>
+      <c r="D59">
+        <v>0.005827123322006798</v>
+      </c>
+      <c r="H59">
+        <v>-0.04757302979521815</v>
+      </c>
+      <c r="I59">
+        <v>0.05014274202017456</v>
+      </c>
+      <c r="J59">
+        <v>0.09771577181539272</v>
+      </c>
+      <c r="K59">
+        <v>-0.01001697741575452</v>
+      </c>
+      <c r="L59">
+        <v>-0.005008479633652378</v>
+      </c>
+      <c r="M59">
+        <v>0.00500849778210214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="2">
+        <v>43552</v>
+      </c>
+      <c r="B60">
+        <v>-0.005007541758720041</v>
+      </c>
+      <c r="C60">
+        <v>0.009222364606219698</v>
+      </c>
+      <c r="D60">
+        <v>0.01422990636493974</v>
+      </c>
+      <c r="E60">
+        <v>-0.0264969287131953</v>
+      </c>
+      <c r="F60">
+        <v>-0.01324080940002017</v>
+      </c>
+      <c r="G60">
+        <v>0.01325611931317512</v>
+      </c>
+      <c r="H60">
+        <v>0.01707042711804083</v>
+      </c>
+      <c r="I60">
+        <v>0.008537796012706158</v>
+      </c>
+      <c r="J60">
+        <v>-0.008532631105334674</v>
+      </c>
+      <c r="K60">
+        <v>-0.05284015562012483</v>
+      </c>
+      <c r="L60">
+        <v>-0.02642002373355054</v>
+      </c>
+      <c r="M60">
+        <v>0.0264201318865743</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="2">
+        <v>43553</v>
+      </c>
+      <c r="B61">
+        <v>0.02732277597917801</v>
+      </c>
+      <c r="C61">
+        <v>0.0219565505411118</v>
+      </c>
+      <c r="D61">
+        <v>-0.005366225438066212</v>
+      </c>
+      <c r="E61">
+        <v>-0.01959257797124437</v>
+      </c>
+      <c r="F61">
+        <v>-0.009780436239696049</v>
+      </c>
+      <c r="G61">
+        <v>0.009812141731548324</v>
+      </c>
+      <c r="H61">
+        <v>-0.01473949344078043</v>
+      </c>
+      <c r="I61">
+        <v>-0.007369621902407787</v>
+      </c>
+      <c r="J61">
+        <v>0.007369871538372641</v>
+      </c>
+      <c r="K61">
+        <v>-0.0534852494267359</v>
+      </c>
+      <c r="L61">
+        <v>-0.02674261644962887</v>
+      </c>
+      <c r="M61">
+        <v>0.02674263297710703</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B62">
+        <v>0.02941072080389159</v>
+      </c>
+      <c r="C62">
+        <v>0.01499755094832956</v>
+      </c>
+      <c r="D62">
+        <v>-0.01441316985556203</v>
+      </c>
+      <c r="E62">
+        <v>-0.0103951910443585</v>
+      </c>
+      <c r="F62">
+        <v>0.005870325726018565</v>
+      </c>
+      <c r="G62">
+        <v>0.01626551677037707</v>
+      </c>
+      <c r="H62">
+        <v>-0.04567336833947374</v>
+      </c>
+      <c r="I62">
+        <v>-0.02283238312966191</v>
+      </c>
+      <c r="J62">
+        <v>0.02284098520981183</v>
+      </c>
+      <c r="K62">
+        <v>-0.04187496318652818</v>
+      </c>
+      <c r="L62">
+        <v>-0.0209372176828967</v>
+      </c>
+      <c r="M62">
+        <v>0.02093774550363148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="2">
+        <v>43557</v>
+      </c>
+      <c r="B63">
+        <v>0.03617838209689628</v>
+      </c>
+      <c r="C63">
+        <v>0.02055818303096489</v>
+      </c>
+      <c r="D63">
+        <v>-0.0156201990659314</v>
+      </c>
+      <c r="E63">
+        <v>0.00187256161408966</v>
+      </c>
+      <c r="F63">
+        <v>0.0009363084032265295</v>
+      </c>
+      <c r="G63">
+        <v>-0.0009362532108631308</v>
+      </c>
+      <c r="H63">
+        <v>-0.006427957854631803</v>
+      </c>
+      <c r="I63">
+        <v>-0.003200252315465254</v>
+      </c>
+      <c r="J63">
+        <v>0.00322770553916655</v>
+      </c>
+      <c r="K63">
+        <v>-0.03392970819562818</v>
+      </c>
+      <c r="L63">
+        <v>-0.01696480059297274</v>
+      </c>
+      <c r="M63">
+        <v>0.01696490760265544</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="2">
+        <v>43558</v>
+      </c>
+      <c r="B64">
+        <v>0.04088900330198005</v>
+      </c>
+      <c r="C64">
+        <v>0.02046813537314857</v>
+      </c>
+      <c r="D64">
+        <v>-0.02042086792883147</v>
+      </c>
+      <c r="E64">
+        <v>-0.002214697203159881</v>
+      </c>
+      <c r="F64">
+        <v>-0.001107201013258981</v>
+      </c>
+      <c r="G64">
+        <v>0.0011074961899009</v>
+      </c>
+      <c r="H64">
+        <v>0.004226926353892323</v>
+      </c>
+      <c r="I64">
+        <v>0.002148103273184857</v>
+      </c>
+      <c r="J64">
+        <v>-0.002078823080707466</v>
+      </c>
+      <c r="K64">
+        <v>-0.004562365872485683</v>
+      </c>
+      <c r="L64">
+        <v>-0.0008734178442335805</v>
+      </c>
+      <c r="M64">
+        <v>0.003688948028252102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="2">
+        <v>43559</v>
+      </c>
+      <c r="B65">
+        <v>-0.05213361755505352</v>
+      </c>
+      <c r="C65">
+        <v>0.04159629085198237</v>
+      </c>
+      <c r="D65">
+        <v>0.09372990840703588</v>
+      </c>
+      <c r="E65">
+        <v>0.02008880495558636</v>
+      </c>
+      <c r="F65">
+        <v>0.01004459926173704</v>
+      </c>
+      <c r="G65">
+        <v>-0.01004420569384932</v>
+      </c>
+      <c r="H65">
+        <v>-0.008093057492553655</v>
+      </c>
+      <c r="I65">
+        <v>-0.004046369167348002</v>
+      </c>
+      <c r="J65">
+        <v>0.004046688325205653</v>
+      </c>
+      <c r="K65">
+        <v>-0.01052870281047224</v>
+      </c>
+      <c r="L65">
+        <v>-0.005250027109874749</v>
+      </c>
+      <c r="M65">
+        <v>0.005278675700597486</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="2">
+        <v>43563</v>
+      </c>
+      <c r="B66">
+        <v>-0.07994826850512717</v>
+      </c>
+      <c r="C66">
+        <v>0.04005145816891845</v>
+      </c>
+      <c r="D66">
+        <v>0.1199997266740456</v>
+      </c>
+      <c r="E66">
+        <v>-0.02359432802413175</v>
+      </c>
+      <c r="F66">
+        <v>0.0405598916205167</v>
+      </c>
+      <c r="G66">
+        <v>0.06415421964464846</v>
+      </c>
+      <c r="H66">
+        <v>0.0144623286532557</v>
+      </c>
+      <c r="I66">
+        <v>0.02080202250824978</v>
+      </c>
+      <c r="J66">
+        <v>0.00633969385499408</v>
+      </c>
+      <c r="K66">
+        <v>0.004455899798103307</v>
+      </c>
+      <c r="L66">
+        <v>0.002228306675666794</v>
+      </c>
+      <c r="M66">
+        <v>-0.002227593122436513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="2">
+        <v>43564</v>
+      </c>
+      <c r="B67">
+        <v>-0.07121540536763837</v>
+      </c>
+      <c r="C67">
+        <v>0.0270294362198714</v>
+      </c>
+      <c r="D67">
+        <v>0.09824484158750978</v>
+      </c>
+      <c r="E67">
+        <v>-0.01572987415191031</v>
+      </c>
+      <c r="F67">
+        <v>0.03824973785431274</v>
+      </c>
+      <c r="G67">
+        <v>0.05397961200622305</v>
+      </c>
+      <c r="H67">
+        <v>0.003088247876090083</v>
+      </c>
+      <c r="I67">
+        <v>0.02794994418378608</v>
+      </c>
+      <c r="J67">
+        <v>0.024861696307696</v>
+      </c>
+      <c r="K67">
+        <v>0.01295912291523564</v>
+      </c>
+      <c r="L67">
+        <v>0.01330051135433833</v>
+      </c>
+      <c r="M67">
+        <v>0.000341388439102688</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="2">
+        <v>43565</v>
+      </c>
+      <c r="B68">
+        <v>-0.03150763967146507</v>
+      </c>
+      <c r="C68">
+        <v>0.02179285924793327</v>
+      </c>
+      <c r="D68">
+        <v>0.05330049891939834</v>
+      </c>
+      <c r="E68">
+        <v>0.02104329941729618</v>
+      </c>
+      <c r="F68">
+        <v>0.0192503099487066</v>
+      </c>
+      <c r="G68">
+        <v>-0.001792989468589583</v>
+      </c>
+      <c r="H68">
+        <v>0.005921134957536696</v>
+      </c>
+      <c r="I68">
+        <v>0.02490609243438159</v>
+      </c>
+      <c r="J68">
+        <v>0.0189849574768449</v>
+      </c>
+      <c r="K68">
+        <v>0.009860444288006174</v>
+      </c>
+      <c r="L68">
+        <v>0.00885429414460184</v>
+      </c>
+      <c r="M68">
+        <v>-0.001006150143404333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="2">
+        <v>43566</v>
+      </c>
+      <c r="B69">
+        <v>-0.02731355286841457</v>
+      </c>
+      <c r="C69">
+        <v>0.02593189305645194</v>
+      </c>
+      <c r="D69">
+        <v>0.05324544592486651</v>
+      </c>
+      <c r="E69">
+        <v>0.004260330519794369</v>
+      </c>
+      <c r="F69">
+        <v>0.02210163305402044</v>
+      </c>
+      <c r="G69">
+        <v>0.01784130253422607</v>
+      </c>
+      <c r="H69">
+        <v>-0.02434849530996183</v>
+      </c>
+      <c r="I69">
+        <v>0.03271821364732348</v>
+      </c>
+      <c r="J69">
+        <v>0.0570667089572853</v>
+      </c>
+      <c r="K69">
+        <v>0.008384792961797932</v>
+      </c>
+      <c r="L69">
+        <v>0.01316036510987449</v>
+      </c>
+      <c r="M69">
+        <v>0.00477557214807656</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="2">
+        <v>43567</v>
+      </c>
+      <c r="B70">
+        <v>5.928214653304366E-05</v>
+      </c>
+      <c r="C70">
+        <v>0.03057555273643259</v>
+      </c>
+      <c r="D70">
+        <v>0.03051627058989955</v>
+      </c>
+      <c r="E70">
+        <v>-0.04597699721352368</v>
+      </c>
+      <c r="F70">
+        <v>0.02417011745241911</v>
+      </c>
+      <c r="G70">
+        <v>0.0701471146659428</v>
+      </c>
+      <c r="H70">
+        <v>-0.02818367305867108</v>
+      </c>
+      <c r="I70">
+        <v>0.02479913514543209</v>
+      </c>
+      <c r="J70">
+        <v>0.05298280820410318</v>
+      </c>
+      <c r="K70">
+        <v>0.02111649516419242</v>
+      </c>
+      <c r="L70">
+        <v>0.01055932065186537</v>
+      </c>
+      <c r="M70">
+        <v>-0.01055717451232705</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="2">
+        <v>43570</v>
+      </c>
+      <c r="B71">
+        <v>-0.07042550224009862</v>
+      </c>
+      <c r="C71">
+        <v>0.03045304366456217</v>
+      </c>
+      <c r="D71">
+        <v>0.1008785459046608</v>
+      </c>
+      <c r="E71">
+        <v>-0.06356409464521655</v>
+      </c>
+      <c r="F71">
+        <v>0.02087167887896502</v>
+      </c>
+      <c r="G71">
+        <v>0.08443577352418158</v>
+      </c>
+      <c r="H71">
+        <v>-0.04843123351510752</v>
+      </c>
+      <c r="I71">
+        <v>0.03116474047010848</v>
+      </c>
+      <c r="J71">
+        <v>0.07959597398521601</v>
+      </c>
+      <c r="K71">
+        <v>0.005858116850874711</v>
+      </c>
+      <c r="L71">
+        <v>0.002931503142722522</v>
+      </c>
+      <c r="M71">
+        <v>-0.002926613708152189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="2">
+        <v>43571</v>
+      </c>
+      <c r="B72">
+        <v>-0.1250386082290941</v>
+      </c>
+      <c r="C72">
+        <v>0.04589733853411853</v>
+      </c>
+      <c r="D72">
+        <v>0.1709359467632127</v>
+      </c>
+      <c r="E72">
+        <v>0.003794098550795441</v>
+      </c>
+      <c r="F72">
+        <v>0.02476373404427533</v>
+      </c>
+      <c r="G72">
+        <v>0.02096963549347989</v>
+      </c>
+      <c r="H72">
+        <v>0.01909054171553786</v>
+      </c>
+      <c r="I72">
+        <v>0.02127049815340886</v>
+      </c>
+      <c r="J72">
+        <v>0.002179956437870997</v>
+      </c>
+      <c r="K72">
+        <v>0.00953251229951085</v>
+      </c>
+      <c r="L72">
+        <v>0.004922900296979955</v>
+      </c>
+      <c r="M72">
+        <v>-0.004609612002530896</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="2">
+        <v>43572</v>
+      </c>
+      <c r="B73">
+        <v>-0.04401975397884503</v>
+      </c>
+      <c r="C73">
+        <v>0.02861360973939739</v>
+      </c>
+      <c r="D73">
+        <v>0.07263336371824243</v>
+      </c>
+      <c r="E73">
+        <v>-0.0230721511342041</v>
+      </c>
+      <c r="F73">
+        <v>0.01517395627213258</v>
+      </c>
+      <c r="G73">
+        <v>0.03824610740633668</v>
+      </c>
+      <c r="H73">
+        <v>0.01814517787228967</v>
+      </c>
+      <c r="I73">
+        <v>0.02219887416320665</v>
+      </c>
+      <c r="J73">
+        <v>0.004053696290916981</v>
+      </c>
+      <c r="K73">
+        <v>0.008426692958563735</v>
+      </c>
+      <c r="L73">
+        <v>0.004213818007115054</v>
+      </c>
+      <c r="M73">
+        <v>-0.00421287495144868</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="2">
+        <v>43573</v>
+      </c>
+      <c r="B74">
+        <v>-0.05522546607749765</v>
+      </c>
+      <c r="C74">
+        <v>0.03134052824146324</v>
+      </c>
+      <c r="D74">
+        <v>0.08656599431896089</v>
+      </c>
+      <c r="E74">
+        <v>-0.05072510659240421</v>
+      </c>
+      <c r="F74">
+        <v>0.008904514155622897</v>
+      </c>
+      <c r="G74">
+        <v>0.05962962074802711</v>
+      </c>
+      <c r="H74">
+        <v>-0.01175111191793402</v>
+      </c>
+      <c r="I74">
+        <v>0.0275217970825203</v>
+      </c>
+      <c r="J74">
+        <v>0.03927290900045433</v>
+      </c>
+      <c r="K74">
+        <v>0.01101698189918069</v>
+      </c>
+      <c r="L74">
+        <v>0.005539581427612665</v>
+      </c>
+      <c r="M74">
+        <v>-0.005477400471568026</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="2">
+        <v>43574</v>
+      </c>
+      <c r="B75">
+        <v>-0.001799782454888549</v>
+      </c>
+      <c r="C75">
+        <v>0.03795088358871525</v>
+      </c>
+      <c r="D75">
+        <v>0.0397506660436038</v>
+      </c>
+      <c r="E75">
+        <v>-0.03487761417343726</v>
+      </c>
+      <c r="F75">
+        <v>0.03223279860958349</v>
+      </c>
+      <c r="G75">
+        <v>0.06711041278302075</v>
+      </c>
+      <c r="H75">
+        <v>0.03445831098147038</v>
+      </c>
+      <c r="I75">
+        <v>0.0256249199101414</v>
+      </c>
+      <c r="J75">
+        <v>-0.00883339107132898</v>
+      </c>
+      <c r="K75">
+        <v>0.0005342084572782657</v>
+      </c>
+      <c r="L75">
+        <v>0.0002671159328056358</v>
+      </c>
+      <c r="M75">
+        <v>-0.0002670925244726299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="2">
+        <v>43577</v>
+      </c>
+      <c r="B76">
+        <v>0.03471826639756675</v>
+      </c>
+      <c r="C76">
+        <v>0.02789700978310162</v>
+      </c>
+      <c r="D76">
+        <v>-0.006821256614465131</v>
+      </c>
+      <c r="E76">
+        <v>0.01280253750113299</v>
+      </c>
+      <c r="F76">
+        <v>0.01218871084609463</v>
+      </c>
+      <c r="G76">
+        <v>-0.0006138266550383561</v>
+      </c>
+      <c r="H76">
+        <v>-0.0391134358246252</v>
+      </c>
+      <c r="I76">
+        <v>0.02590936673129091</v>
+      </c>
+      <c r="J76">
+        <v>0.0650228025559161</v>
+      </c>
+      <c r="K76">
+        <v>-0.006405346658028529</v>
+      </c>
+      <c r="L76">
+        <v>-0.003199516008222943</v>
+      </c>
+      <c r="M76">
+        <v>0.003205830649805586</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="2">
+        <v>43578</v>
+      </c>
+      <c r="B77">
+        <v>-6.014567431991626E-06</v>
+      </c>
+      <c r="C77">
+        <v>0.02679545259123165</v>
+      </c>
+      <c r="D77">
+        <v>0.02680146715866364</v>
+      </c>
+      <c r="E77">
+        <v>-0.0601885370728518</v>
+      </c>
+      <c r="F77">
+        <v>0.01851531428648899</v>
+      </c>
+      <c r="G77">
+        <v>0.0787038513593408</v>
+      </c>
+      <c r="H77">
+        <v>-0.03012871541997326</v>
+      </c>
+      <c r="I77">
+        <v>0.02293656979273807</v>
+      </c>
+      <c r="J77">
+        <v>0.05306528521271132</v>
+      </c>
+      <c r="K77">
+        <v>0.01858313316024091</v>
+      </c>
+      <c r="L77">
+        <v>0.009291818307714347</v>
+      </c>
+      <c r="M77">
+        <v>-0.009291314852526563</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="2">
+        <v>43579</v>
+      </c>
+      <c r="B78">
+        <v>-0.1049984994685243</v>
+      </c>
+      <c r="C78">
+        <v>0.01772951358999501</v>
+      </c>
+      <c r="D78">
+        <v>0.1227280130585193</v>
+      </c>
+      <c r="E78">
+        <v>-0.04702450180338026</v>
+      </c>
+      <c r="F78">
+        <v>0.01681950852435899</v>
+      </c>
+      <c r="G78">
+        <v>0.06384401032773926</v>
+      </c>
+      <c r="H78">
+        <v>0.01575710842002623</v>
+      </c>
+      <c r="I78">
+        <v>0.007878604955653035</v>
+      </c>
+      <c r="J78">
+        <v>-0.007878503464373198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="2">
+        <v>43580</v>
+      </c>
+      <c r="B79">
+        <v>0.01512788577465018</v>
+      </c>
+      <c r="C79">
+        <v>0.007570015485071164</v>
+      </c>
+      <c r="D79">
+        <v>-0.007557870289579015</v>
+      </c>
+      <c r="E79">
+        <v>-0.1082789564800475</v>
+      </c>
+      <c r="F79">
+        <v>0.02048130647324803</v>
+      </c>
+      <c r="G79">
+        <v>0.1287602629532955</v>
+      </c>
+      <c r="H79">
+        <v>0.006487077580889886</v>
+      </c>
+      <c r="I79">
+        <v>0.003243544872629255</v>
+      </c>
+      <c r="J79">
+        <v>-0.003243532708260631</v>
+      </c>
+      <c r="K79">
+        <v>-0.02223882864372585</v>
+      </c>
+      <c r="L79">
+        <v>-0.01109459473978528</v>
+      </c>
+      <c r="M79">
+        <v>0.01114423390394058</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="2">
+        <v>43581</v>
+      </c>
+      <c r="B80">
+        <v>-0.1488388904536988</v>
+      </c>
+      <c r="C80">
+        <v>0.001011196393634657</v>
+      </c>
+      <c r="D80">
+        <v>0.1498500868473334</v>
+      </c>
+      <c r="E80">
+        <v>-0.2022873955083476</v>
+      </c>
+      <c r="F80">
+        <v>-0.007164191540331021</v>
+      </c>
+      <c r="G80">
+        <v>0.1951232039680166</v>
+      </c>
+      <c r="H80">
+        <v>0.02445491574845095</v>
+      </c>
+      <c r="I80">
+        <v>0.01225265014037487</v>
+      </c>
+      <c r="J80">
+        <v>-0.01220226560807608</v>
+      </c>
+      <c r="K80">
+        <v>-0.03797310895576379</v>
+      </c>
+      <c r="L80">
+        <v>-0.01897336395137865</v>
+      </c>
+      <c r="M80">
+        <v>0.01899974500438514</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="2">
+        <v>43584</v>
+      </c>
+      <c r="B81">
+        <v>-0.04298848214203014</v>
+      </c>
+      <c r="C81">
+        <v>0.02197075738766771</v>
+      </c>
+      <c r="D81">
+        <v>0.06495923952969786</v>
+      </c>
+      <c r="E81">
+        <v>-0.01194204704827441</v>
+      </c>
+      <c r="F81">
+        <v>0.005684525747322128</v>
+      </c>
+      <c r="G81">
+        <v>0.01762657279559654</v>
+      </c>
+      <c r="H81">
+        <v>0.002542289885454869</v>
+      </c>
+      <c r="I81">
+        <v>0.001272193677987721</v>
+      </c>
+      <c r="J81">
+        <v>-0.001270096207467148</v>
+      </c>
+      <c r="K81">
+        <v>0.004839195570333379</v>
+      </c>
+      <c r="L81">
+        <v>0.00243570303803726</v>
+      </c>
+      <c r="M81">
+        <v>-0.00240349253229612</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B82">
+        <v>-0.1158705998166505</v>
+      </c>
+      <c r="C82">
+        <v>0.002537250499522334</v>
+      </c>
+      <c r="D82">
+        <v>0.1184078503161729</v>
+      </c>
+      <c r="E82">
+        <v>-0.05282057107942352</v>
+      </c>
+      <c r="F82">
+        <v>-0.007916685836223611</v>
+      </c>
+      <c r="G82">
+        <v>0.04490388524319991</v>
+      </c>
+      <c r="H82">
+        <v>-0.006441545428431741</v>
+      </c>
+      <c r="I82">
+        <v>-0.003218755978666843</v>
+      </c>
+      <c r="J82">
+        <v>0.003222789449764898</v>
+      </c>
+      <c r="K82">
+        <v>-0.03340203545544173</v>
+      </c>
+      <c r="L82">
+        <v>-0.01670057165222239</v>
+      </c>
+      <c r="M82">
+        <v>0.01670146380321934</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="2">
+        <v>43591</v>
+      </c>
+      <c r="B83">
+        <v>-0.03862632764189348</v>
+      </c>
+      <c r="C83">
+        <v>0.03635601976990331</v>
+      </c>
+      <c r="D83">
+        <v>0.0749823474117968</v>
+      </c>
+      <c r="E83">
+        <v>-0.1132934364506269</v>
+      </c>
+      <c r="F83">
+        <v>0.02705633569683244</v>
+      </c>
+      <c r="G83">
+        <v>0.1403497721474594</v>
+      </c>
+      <c r="H83">
+        <v>-0.01606442061315121</v>
+      </c>
+      <c r="I83">
+        <v>-0.008028483202821176</v>
+      </c>
+      <c r="J83">
+        <v>0.008035937410330039</v>
+      </c>
+      <c r="K83">
+        <v>-0.02598328650616639</v>
+      </c>
+      <c r="L83">
+        <v>-0.01299004041887349</v>
+      </c>
+      <c r="M83">
+        <v>0.0129932460872929</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="2">
+        <v>43592</v>
+      </c>
+      <c r="B84">
+        <v>-0.07643133480500129</v>
+      </c>
+      <c r="C84">
+        <v>0.04191912404715776</v>
+      </c>
+      <c r="D84">
+        <v>0.1183504588521591</v>
+      </c>
+      <c r="E84">
+        <v>-0.07814746832650248</v>
+      </c>
+      <c r="F84">
+        <v>0.007660487213710389</v>
+      </c>
+      <c r="G84">
+        <v>0.08580795554021287</v>
+      </c>
+      <c r="H84">
+        <v>-0.004668557376808483</v>
+      </c>
+      <c r="I84">
+        <v>-0.002333997960098624</v>
+      </c>
+      <c r="J84">
+        <v>0.002334559416709859</v>
+      </c>
+      <c r="K84">
+        <v>-0.02521761612037179</v>
+      </c>
+      <c r="L84">
+        <v>-0.01245189311784491</v>
+      </c>
+      <c r="M84">
+        <v>0.01276572300252688</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="2">
+        <v>43593</v>
+      </c>
+      <c r="B85">
+        <v>-0.06311435122102932</v>
+      </c>
+      <c r="C85">
+        <v>0.03626817453485904</v>
+      </c>
+      <c r="D85">
+        <v>0.09938252575588835</v>
+      </c>
+      <c r="E85">
+        <v>-0.009325523859915173</v>
+      </c>
+      <c r="F85">
+        <v>0.01764303318610929</v>
+      </c>
+      <c r="G85">
+        <v>0.02696855704602447</v>
+      </c>
+      <c r="H85">
+        <v>-0.01555837387841339</v>
+      </c>
+      <c r="I85">
+        <v>-0.007774516926458487</v>
+      </c>
+      <c r="J85">
+        <v>0.007783856951954908</v>
+      </c>
+      <c r="K85">
+        <v>-0.04403663566099197</v>
+      </c>
+      <c r="L85">
+        <v>-0.02200655119059091</v>
+      </c>
+      <c r="M85">
+        <v>0.02203008447040106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="2">
+        <v>43594</v>
+      </c>
+      <c r="B86">
+        <v>-0.1234393873050809</v>
+      </c>
+      <c r="C86">
+        <v>0.0493835930311117</v>
+      </c>
+      <c r="D86">
+        <v>0.1728229803361926</v>
+      </c>
+      <c r="E86">
+        <v>-2.362960706045434E-05</v>
+      </c>
+      <c r="F86">
+        <v>0.01380899371299756</v>
+      </c>
+      <c r="G86">
+        <v>0.01383262332005802</v>
+      </c>
+      <c r="H86">
+        <v>-0.03075926026916635</v>
+      </c>
+      <c r="I86">
+        <v>-0.01537959156025782</v>
+      </c>
+      <c r="J86">
+        <v>0.01537966870890853</v>
+      </c>
+      <c r="K86">
+        <v>-0.02703700443367882</v>
+      </c>
+      <c r="L86">
+        <v>-0.01351261553304203</v>
+      </c>
+      <c r="M86">
+        <v>0.01352438890063679</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="2">
+        <v>43595</v>
+      </c>
+      <c r="B87">
+        <v>-0.06379839809224663</v>
+      </c>
+      <c r="C87">
+        <v>0.0387026927931771</v>
+      </c>
+      <c r="D87">
+        <v>0.1025010908854237</v>
+      </c>
+      <c r="E87">
+        <v>-0.04136227258093687</v>
+      </c>
+      <c r="F87">
+        <v>0.01595450079388267</v>
+      </c>
+      <c r="G87">
+        <v>0.05731677337481954</v>
+      </c>
+      <c r="H87">
+        <v>-0.001610514108689449</v>
+      </c>
+      <c r="I87">
+        <v>-0.0007269831017691281</v>
+      </c>
+      <c r="J87">
+        <v>0.0008835310069203212</v>
+      </c>
+      <c r="K87">
+        <v>-0.009574421969104713</v>
+      </c>
+      <c r="L87">
+        <v>-0.004691231915277487</v>
+      </c>
+      <c r="M87">
+        <v>0.004883190053827225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="2">
+        <v>43598</v>
+      </c>
+      <c r="B88">
+        <v>-0.01389067663664663</v>
+      </c>
+      <c r="C88">
+        <v>0.03155957480462177</v>
+      </c>
+      <c r="D88">
+        <v>0.0454502514412684</v>
+      </c>
+      <c r="E88">
+        <v>-0.07321038451060745</v>
+      </c>
+      <c r="F88">
+        <v>0.007751764736280685</v>
+      </c>
+      <c r="G88">
+        <v>0.08096214924688813</v>
+      </c>
+      <c r="H88">
+        <v>-0.009435095332661288</v>
+      </c>
+      <c r="I88">
+        <v>-0.004717490828082753</v>
+      </c>
+      <c r="J88">
+        <v>0.004717604504578535</v>
+      </c>
+      <c r="K88">
+        <v>-0.03339148119959486</v>
+      </c>
+      <c r="L88">
+        <v>-0.01669545550797509</v>
+      </c>
+      <c r="M88">
+        <v>0.01669602569161977</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="2">
+        <v>43599</v>
+      </c>
+      <c r="B89">
+        <v>-0.01884367774674039</v>
+      </c>
+      <c r="C89">
+        <v>0.02293546769650641</v>
+      </c>
+      <c r="D89">
+        <v>0.04177914544324681</v>
+      </c>
+      <c r="E89">
+        <v>-0.009971432447482005</v>
+      </c>
+      <c r="F89">
+        <v>0.005584109619094039</v>
+      </c>
+      <c r="G89">
+        <v>0.01555554206657605</v>
+      </c>
+      <c r="H89">
+        <v>0.004424532224934333</v>
+      </c>
+      <c r="I89">
+        <v>0.002225013451587571</v>
+      </c>
+      <c r="J89">
+        <v>-0.002199518773346763</v>
+      </c>
+      <c r="K89">
+        <v>-0.02136772143770736</v>
+      </c>
+      <c r="L89">
+        <v>-0.01064452931955873</v>
+      </c>
+      <c r="M89">
+        <v>0.01072319211814863</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="2">
+        <v>43600</v>
+      </c>
+      <c r="B90">
+        <v>-0.03938019499216322</v>
+      </c>
+      <c r="C90">
+        <v>0.03270612287706068</v>
+      </c>
+      <c r="D90">
+        <v>0.0720863178692239</v>
+      </c>
+      <c r="E90">
+        <v>-0.02394534062732944</v>
+      </c>
+      <c r="F90">
+        <v>0.02094139648025821</v>
+      </c>
+      <c r="G90">
+        <v>0.04488673710758766</v>
+      </c>
+      <c r="H90">
+        <v>0.01330901298906673</v>
+      </c>
+      <c r="I90">
+        <v>0.006859080985374439</v>
+      </c>
+      <c r="J90">
+        <v>-0.006449932003692288</v>
+      </c>
+      <c r="K90">
+        <v>0.0007083712475036125</v>
+      </c>
+      <c r="L90">
+        <v>0.001796573579602408</v>
+      </c>
+      <c r="M90">
+        <v>0.001088202332098796</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="2">
+        <v>43601</v>
+      </c>
+      <c r="B91">
+        <v>-0.006881463798026174</v>
+      </c>
+      <c r="C91">
+        <v>0.03141423410854066</v>
+      </c>
+      <c r="D91">
+        <v>0.03829569790656683</v>
+      </c>
+      <c r="E91">
+        <v>-0.03501936725579038</v>
+      </c>
+      <c r="F91">
+        <v>0.02105615279160471</v>
+      </c>
+      <c r="G91">
+        <v>0.05607552004739509</v>
+      </c>
+      <c r="H91">
+        <v>0.01387867445666369</v>
+      </c>
+      <c r="I91">
+        <v>0.008995668489317611</v>
+      </c>
+      <c r="J91">
+        <v>-0.004883005967346083</v>
+      </c>
+      <c r="K91">
+        <v>-0.005238064405162671</v>
+      </c>
+      <c r="L91">
+        <v>-0.002596243187322118</v>
+      </c>
+      <c r="M91">
+        <v>0.002641821217840553</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="2">
+        <v>43602</v>
+      </c>
+      <c r="B92">
+        <v>-0.006178430356871207</v>
+      </c>
+      <c r="C92">
+        <v>0.03806548053902833</v>
+      </c>
+      <c r="D92">
+        <v>0.04424391089589953</v>
+      </c>
+      <c r="E92">
+        <v>-0.0416534387373555</v>
+      </c>
+      <c r="F92">
+        <v>0.01645018688433698</v>
+      </c>
+      <c r="G92">
+        <v>0.05810362562169249</v>
+      </c>
+      <c r="H92">
+        <v>0.02993158044628516</v>
+      </c>
+      <c r="I92">
+        <v>0.01496709569698454</v>
+      </c>
+      <c r="J92">
+        <v>-0.01496448474930062</v>
+      </c>
+      <c r="K92">
+        <v>-0.02403312505845509</v>
+      </c>
+      <c r="L92">
+        <v>-0.01199196463458752</v>
+      </c>
+      <c r="M92">
+        <v>0.01204116042386757</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="2">
+        <v>43605</v>
+      </c>
+      <c r="B93">
+        <v>-0.1282499021093566</v>
+      </c>
+      <c r="C93">
+        <v>0.02353463183106339</v>
+      </c>
+      <c r="D93">
+        <v>0.15178453394042</v>
+      </c>
+      <c r="E93">
+        <v>-0.06484406668132137</v>
+      </c>
+      <c r="F93">
+        <v>0.02473002789011039</v>
+      </c>
+      <c r="G93">
+        <v>0.08957409457143176</v>
+      </c>
+      <c r="H93">
+        <v>0.04033226739340334</v>
+      </c>
+      <c r="I93">
+        <v>0.02129740460181298</v>
+      </c>
+      <c r="J93">
+        <v>-0.01903486279159036</v>
+      </c>
+      <c r="K93">
+        <v>-0.03080545936696258</v>
+      </c>
+      <c r="L93">
+        <v>-0.01539693706187877</v>
+      </c>
+      <c r="M93">
+        <v>0.01540852230508381</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="2">
+        <v>43606</v>
+      </c>
+      <c r="B94">
+        <v>-8.289594521470057E-08</v>
+      </c>
+      <c r="C94">
+        <v>0.07630243478897815</v>
+      </c>
+      <c r="D94">
+        <v>0.07630251768492335</v>
+      </c>
+      <c r="E94">
+        <v>-0.010663898488518</v>
+      </c>
+      <c r="F94">
+        <v>0.02171657804332285</v>
+      </c>
+      <c r="G94">
+        <v>0.03238047653184085</v>
+      </c>
+      <c r="H94">
+        <v>0.02751707193866</v>
+      </c>
+      <c r="I94">
+        <v>0.01596741870651921</v>
+      </c>
+      <c r="J94">
+        <v>-0.01154965323214079</v>
+      </c>
+      <c r="K94">
+        <v>-0.02779933970535121</v>
+      </c>
+      <c r="L94">
+        <v>-0.01388535927883556</v>
+      </c>
+      <c r="M94">
+        <v>0.01391398042651566</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="2">
+        <v>43607</v>
+      </c>
+      <c r="B95">
+        <v>-0.03553605684465739</v>
+      </c>
+      <c r="C95">
+        <v>0.02158522122411762</v>
+      </c>
+      <c r="D95">
+        <v>0.05712127806877501</v>
+      </c>
+      <c r="H95">
+        <v>0.01264356851966652</v>
+      </c>
+      <c r="I95">
+        <v>0.01744560914193796</v>
+      </c>
+      <c r="J95">
+        <v>0.004802040622271439</v>
+      </c>
+      <c r="K95">
+        <v>-0.06165804149639443</v>
+      </c>
+      <c r="L95">
+        <v>-0.03081200619877644</v>
+      </c>
+      <c r="M95">
+        <v>0.03084603529761799</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="2">
+        <v>43608</v>
+      </c>
+      <c r="B96">
+        <v>-0.002579210462572787</v>
+      </c>
+      <c r="C96">
+        <v>0.01272412758937049</v>
+      </c>
+      <c r="D96">
+        <v>0.01530333805194328</v>
+      </c>
+      <c r="E96">
+        <v>-0.004142433029075382</v>
+      </c>
+      <c r="F96">
+        <v>0.001113909934698093</v>
+      </c>
+      <c r="G96">
+        <v>0.005256342963773475</v>
+      </c>
+      <c r="H96">
+        <v>0.01192378903902709</v>
+      </c>
+      <c r="I96">
+        <v>0.005970968678526873</v>
+      </c>
+      <c r="J96">
+        <v>-0.005952820360500222</v>
+      </c>
+      <c r="K96">
+        <v>-0.05304150251385966</v>
+      </c>
+      <c r="L96">
+        <v>-0.02651178608403823</v>
+      </c>
+      <c r="M96">
+        <v>0.02652971642982143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="2">
+        <v>43609</v>
+      </c>
+      <c r="B97">
+        <v>0.002713508397505711</v>
+      </c>
+      <c r="C97">
+        <v>0.01611747700610451</v>
+      </c>
+      <c r="D97">
+        <v>0.0134039686085988</v>
+      </c>
+      <c r="E97">
+        <v>-0.02842191630610406</v>
+      </c>
+      <c r="F97">
+        <v>0.003249026954877602</v>
+      </c>
+      <c r="G97">
+        <v>0.03167094326098166</v>
+      </c>
+      <c r="H97">
+        <v>0.002828935135996199</v>
+      </c>
+      <c r="I97">
+        <v>0.009783011143529174</v>
+      </c>
+      <c r="J97">
+        <v>0.006954076007532975</v>
+      </c>
+      <c r="K97">
+        <v>-0.01620796806831793</v>
+      </c>
+      <c r="L97">
+        <v>-0.008053458753293174</v>
+      </c>
+      <c r="M97">
+        <v>0.008154509315024755</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="2">
+        <v>43612</v>
+      </c>
+      <c r="B98">
+        <v>-0.02581628563696856</v>
+      </c>
+      <c r="C98">
+        <v>0.01256723670536903</v>
+      </c>
+      <c r="D98">
+        <v>0.0383835223423376</v>
+      </c>
+      <c r="E98">
+        <v>-0.01901435144047561</v>
+      </c>
+      <c r="F98">
+        <v>0.003363501382719767</v>
+      </c>
+      <c r="G98">
+        <v>0.02237785282319537</v>
+      </c>
+      <c r="H98">
+        <v>0.01363792641944657</v>
+      </c>
+      <c r="I98">
+        <v>0.007012075995645325</v>
+      </c>
+      <c r="J98">
+        <v>-0.006625850423801249</v>
+      </c>
+      <c r="K98">
+        <v>-0.0187250655724924</v>
+      </c>
+      <c r="L98">
+        <v>-0.009309640040748506</v>
+      </c>
+      <c r="M98">
+        <v>0.009415425531743892</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="2">
+        <v>43613</v>
+      </c>
+      <c r="B99">
+        <v>0.03277512272479671</v>
+      </c>
+      <c r="C99">
+        <v>0.01640740025693097</v>
+      </c>
+      <c r="D99">
+        <v>-0.01636772246786574</v>
+      </c>
+      <c r="E99">
+        <v>-0.01238671485562348</v>
+      </c>
+      <c r="F99">
+        <v>0.01227140981346574</v>
+      </c>
+      <c r="G99">
+        <v>0.02465812466908923</v>
+      </c>
+      <c r="H99">
+        <v>0.007724606656855193</v>
+      </c>
+      <c r="I99">
+        <v>0.01300203358108488</v>
+      </c>
+      <c r="J99">
+        <v>0.005277426924229682</v>
+      </c>
+      <c r="K99">
+        <v>-0.004413727725164776</v>
+      </c>
+      <c r="L99">
+        <v>0.008877225905026369</v>
+      </c>
+      <c r="M99">
+        <v>0.01329095363019115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="2">
+        <v>43614</v>
+      </c>
+      <c r="B100">
+        <v>0.0431755844682542</v>
+      </c>
+      <c r="C100">
+        <v>0.03081879854964763</v>
+      </c>
+      <c r="D100">
+        <v>-0.01235678591860657</v>
+      </c>
+      <c r="E100">
+        <v>-0.05839935869444361</v>
+      </c>
+      <c r="F100">
+        <v>0.006897892606716362</v>
+      </c>
+      <c r="G100">
+        <v>0.06529725130115997</v>
+      </c>
+      <c r="H100">
+        <v>-0.007659610492195245</v>
+      </c>
+      <c r="I100">
+        <v>0.01869533842707898</v>
+      </c>
+      <c r="J100">
+        <v>0.02635494891927423</v>
+      </c>
+      <c r="K100">
+        <v>-0.01401119237790275</v>
+      </c>
+      <c r="L100">
+        <v>0.007631782163573983</v>
+      </c>
+      <c r="M100">
+        <v>0.02164297454147673</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="2">
+        <v>43615</v>
+      </c>
+      <c r="B101">
+        <v>0.01964375103142659</v>
+      </c>
+      <c r="C101">
+        <v>0.01377462548480712</v>
+      </c>
+      <c r="D101">
+        <v>-0.005869125546619475</v>
+      </c>
+      <c r="E101">
+        <v>-0.01533586197917834</v>
+      </c>
+      <c r="F101">
+        <v>0.008609691001505554</v>
+      </c>
+      <c r="G101">
+        <v>0.02394555298068389</v>
+      </c>
+      <c r="H101">
+        <v>-0.006193031833641316</v>
+      </c>
+      <c r="I101">
+        <v>0.01373630421527723</v>
+      </c>
+      <c r="J101">
+        <v>0.01992933604891855</v>
+      </c>
+      <c r="K101">
+        <v>-0.0006193704491504933</v>
+      </c>
+      <c r="L101">
+        <v>0.01955332070297386</v>
+      </c>
+      <c r="M101">
+        <v>0.02017269115212435</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B102">
+        <v>0.004156902611097117</v>
+      </c>
+      <c r="C102">
+        <v>0.002084079486899923</v>
+      </c>
+      <c r="D102">
+        <v>-0.002072823124197195</v>
+      </c>
+      <c r="E102">
+        <v>-0.008564009568441668</v>
+      </c>
+      <c r="F102">
+        <v>-0.004278199824023872</v>
+      </c>
+      <c r="G102">
+        <v>0.004285809744417795</v>
+      </c>
+      <c r="H102">
+        <v>-0.04620224803000649</v>
+      </c>
+      <c r="I102">
+        <v>-0.02310112206869308</v>
+      </c>
+      <c r="J102">
+        <v>0.02310112596131341</v>
+      </c>
+      <c r="K102">
+        <v>-0.01106156493200021</v>
+      </c>
+      <c r="L102">
+        <v>-0.005438342341630549</v>
+      </c>
+      <c r="M102">
+        <v>0.005623222590369657</v>
       </c>
     </row>
   </sheetData>

--- a/data/summary.xlsx
+++ b/data/summary.xlsx
@@ -468,43 +468,34 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
-        <v>43467</v>
+        <v>43521</v>
       </c>
       <c r="B4">
-        <v>-0.01359705220475058</v>
+        <v>-0.06342467759950551</v>
       </c>
       <c r="C4">
-        <v>0.01133596645325934</v>
+        <v>-0.008121093565232676</v>
       </c>
       <c r="D4">
-        <v>0.02493301865800992</v>
-      </c>
-      <c r="E4">
-        <v>0.004910446590142014</v>
-      </c>
-      <c r="F4">
-        <v>0.0027913032218936</v>
-      </c>
-      <c r="G4">
-        <v>-0.002119143368248413</v>
+        <v>0.05530358403427284</v>
       </c>
       <c r="H4">
-        <v>-0.01523992405625496</v>
+        <v>-0.01969186435677019</v>
       </c>
       <c r="I4">
-        <v>-0.00761814775567264</v>
+        <v>0.004690418365904845</v>
       </c>
       <c r="J4">
-        <v>0.007621776300582323</v>
+        <v>0.02438228272267504</v>
       </c>
       <c r="K4">
-        <v>-0.003390337803360485</v>
+        <v>-0.02177190624113852</v>
       </c>
       <c r="L4">
-        <v>0.01947230396168908</v>
+        <v>-0.003231944387557424</v>
       </c>
       <c r="M4">
-        <v>0.02286264176504956</v>
+        <v>0.0185399618535811</v>
       </c>
     </row>
   </sheetData>
